--- a/results/results_maintenance_atp_tuning.xlsx
+++ b/results/results_maintenance_atp_tuning.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uminho365-my.sharepoint.com/personal/id8006_uminho_pt/Documents/Pycharm_projects/lab_models/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="11_8B68851785D58342669C38407AE2D5ECDE35A5BB" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8C1613F6-7908-45AD-A9BD-7A06EE1F9959}"/>
+  <xr:revisionPtr revIDLastSave="38" documentId="11_8B68851785D58342669C38407AE2D5ECDE35A5BB" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2F70BA41-83F8-468D-908F-85F9766B116C}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="iCC390" sheetId="1" r:id="rId1"/>
+    <sheet name="iCC389" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,9 +51,6 @@
     <t>ATP Maintenance (mmolATP/gbiomass)</t>
   </si>
   <si>
-    <t>Glucose (mmolLactose/gbiomass/h-1)</t>
-  </si>
-  <si>
     <t>Amino Acids (mmolLactose/gbiomass/h-1)</t>
   </si>
   <si>
@@ -64,6 +61,9 @@
   </si>
   <si>
     <t>Interception</t>
+  </si>
+  <si>
+    <t>Glucose (mmolGlucose/gbiomass/h-1)</t>
   </si>
 </sst>
 </file>
@@ -304,7 +304,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'iCC390'!$B$1</c:f>
+              <c:f>'iCC389'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -415,7 +415,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'iCC390'!$A$2:$A$20</c:f>
+              <c:f>'iCC389'!$A$2:$A$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
@@ -481,7 +481,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'iCC390'!$B$2:$B$20</c:f>
+              <c:f>'iCC389'!$B$2:$B$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
@@ -1733,8 +1733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B22" sqref="A22:B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1913,7 +1913,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B23">
         <f>SLOPE(B2:B20,A2:A20)</f>
@@ -1922,7 +1922,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B24">
         <f>INTERCEPT(B2:B20,A2:A20)</f>
@@ -1964,7 +1964,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B30" s="5">
         <v>9.3800000000000008</v>
@@ -1972,7 +1972,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B31" s="5">
         <v>1</v>
@@ -1980,7 +1980,7 @@
     </row>
     <row r="32" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B32" s="7">
         <v>0.15</v>

--- a/results/results_maintenance_atp_tuning.xlsx
+++ b/results/results_maintenance_atp_tuning.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uminho365-my.sharepoint.com/personal/id8006_uminho_pt/Documents/Pycharm_projects/lab_models/results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="38" documentId="11_8B68851785D58342669C38407AE2D5ECDE35A5BB" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2F70BA41-83F8-468D-908F-85F9766B116C}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_68D48C85B8067685079F26C4905E66AC553D85B8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{38072AE9-589A-4193-8380-8A2507413EAB}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,6 +42,12 @@
     <t>Experimental growth rate (h-1)</t>
   </si>
   <si>
+    <t>Slope</t>
+  </si>
+  <si>
+    <t>Interception</t>
+  </si>
+  <si>
     <t>Constraints</t>
   </si>
   <si>
@@ -51,19 +57,13 @@
     <t>ATP Maintenance (mmolATP/gbiomass)</t>
   </si>
   <si>
+    <t>Glucose (mmolGlucose/gbiomass/h-1)</t>
+  </si>
+  <si>
     <t>Amino Acids (mmolLactose/gbiomass/h-1)</t>
   </si>
   <si>
     <t>Growth Rate (h-1)</t>
-  </si>
-  <si>
-    <t>Slope</t>
-  </si>
-  <si>
-    <t>Interception</t>
-  </si>
-  <si>
-    <t>Glucose (mmolGlucose/gbiomass/h-1)</t>
   </si>
 </sst>
 </file>
@@ -240,7 +240,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -269,29 +269,9 @@
         <a:noFill/>
         <a:ln>
           <a:noFill/>
+          <a:prstDash val="solid"/>
         </a:ln>
-        <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -316,9 +296,9 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:noFill/>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
@@ -331,8 +311,8 @@
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
+                <a:prstDash val="solid"/>
               </a:ln>
-              <a:effectLst/>
             </c:spPr>
           </c:marker>
           <c:trendline>
@@ -343,35 +323,6 @@
                 </a:solidFill>
                 <a:prstDash val="sysDot"/>
               </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
             <c:dispRSqr val="1"/>
@@ -379,7 +330,7 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.11048206474190726"/>
+                  <c:x val="0.1104820647419073"/>
                   <c:y val="-0.42167165627734032"/>
                 </c:manualLayout>
               </c:layout>
@@ -388,15 +339,15 @@
                 <a:noFill/>
                 <a:ln>
                   <a:noFill/>
+                  <a:prstDash val="solid"/>
                 </a:ln>
-                <a:effectLst/>
               </c:spPr>
               <c:txPr>
                 <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
                         <a:schemeClr val="tx1">
                           <a:lumMod val="65000"/>
@@ -486,61 +437,61 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="19"/>
                 <c:pt idx="0">
-                  <c:v>0.26471791790838739</c:v>
+                  <c:v>0.26471791790838839</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.25766253630101971</c:v>
+                  <c:v>0.25766253630102259</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.25060715469365541</c:v>
+                  <c:v>0.25060715469365441</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.24355177308628731</c:v>
+                  <c:v>0.24355177308628961</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.2364963914789224</c:v>
+                  <c:v>0.23649639147892121</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.2294410098715563</c:v>
+                  <c:v>0.22944100987155611</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.2223856282641905</c:v>
+                  <c:v>0.22238562826419039</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.21533024665682121</c:v>
+                  <c:v>0.21533024665682321</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.20827486504945811</c:v>
+                  <c:v>0.20827486504945589</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.2012194834420909</c:v>
+                  <c:v>0.20121948344209109</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.1941641018347236</c:v>
+                  <c:v>0.19416410183472299</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.18710872022735581</c:v>
+                  <c:v>0.18710872022735861</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.18005333861999229</c:v>
+                  <c:v>0.18005333861999201</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.17299795701262499</c:v>
+                  <c:v>0.1729979570126228</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.1659425754052555</c:v>
+                  <c:v>0.16594257540525831</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.1588871937978916</c:v>
+                  <c:v>0.15888719379789201</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>0.15183181219052649</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.14477643058315881</c:v>
+                  <c:v>0.144776430583159</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.13772104897579279</c:v>
+                  <c:v>0.13772104897579171</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -548,7 +499,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-50F7-4820-AFA6-77E681A710C9}"/>
+              <c16:uniqueId val="{00000001-65DD-4033-8431-2EF5C0E77953}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -579,9 +530,9 @@
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
         <c:title>
@@ -591,7 +542,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -615,29 +566,9 @@
             <a:noFill/>
             <a:ln>
               <a:noFill/>
+              <a:prstDash val="solid"/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -652,16 +583,16 @@
                 <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
+            <a:prstDash val="solid"/>
             <a:round/>
           </a:ln>
-          <a:effectLst/>
         </c:spPr>
         <c:txPr>
           <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -696,9 +627,9 @@
                   <a:lumOff val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
+              <a:prstDash val="solid"/>
               <a:round/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
         <c:title>
@@ -708,7 +639,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1000" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -732,29 +663,9 @@
             <a:noFill/>
             <a:ln>
               <a:noFill/>
+              <a:prstDash val="solid"/>
             </a:ln>
-            <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -769,16 +680,16 @@
                 <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
+            <a:prstDash val="solid"/>
             <a:round/>
           </a:ln>
-          <a:effectLst/>
         </c:spPr>
         <c:txPr>
           <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -797,612 +708,17 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1425,7 +741,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3117626-DB34-43B4-BC6E-73B09BB0A158}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1733,8 +1049,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B22" sqref="A22:B22"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1756,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.26471791790838739</v>
+        <v>0.26471791790838839</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -1764,7 +1080,7 @@
         <v>0.5</v>
       </c>
       <c r="B3">
-        <v>0.25766253630101971</v>
+        <v>0.25766253630102259</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -1772,7 +1088,7 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>0.25060715469365541</v>
+        <v>0.25060715469365441</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -1780,7 +1096,7 @@
         <v>1.5</v>
       </c>
       <c r="B5">
-        <v>0.24355177308628731</v>
+        <v>0.24355177308628961</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -1788,7 +1104,7 @@
         <v>2</v>
       </c>
       <c r="B6">
-        <v>0.2364963914789224</v>
+        <v>0.23649639147892121</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -1796,7 +1112,7 @@
         <v>2.5</v>
       </c>
       <c r="B7">
-        <v>0.2294410098715563</v>
+        <v>0.22944100987155611</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -1804,7 +1120,7 @@
         <v>3</v>
       </c>
       <c r="B8">
-        <v>0.2223856282641905</v>
+        <v>0.22238562826419039</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -1812,7 +1128,7 @@
         <v>3.5</v>
       </c>
       <c r="B9">
-        <v>0.21533024665682121</v>
+        <v>0.21533024665682321</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -1820,7 +1136,7 @@
         <v>4</v>
       </c>
       <c r="B10">
-        <v>0.20827486504945811</v>
+        <v>0.20827486504945589</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -1828,7 +1144,7 @@
         <v>4.5</v>
       </c>
       <c r="B11">
-        <v>0.2012194834420909</v>
+        <v>0.20121948344209109</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -1836,7 +1152,7 @@
         <v>5</v>
       </c>
       <c r="B12">
-        <v>0.1941641018347236</v>
+        <v>0.19416410183472299</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -1844,7 +1160,7 @@
         <v>5.5</v>
       </c>
       <c r="B13">
-        <v>0.18710872022735581</v>
+        <v>0.18710872022735861</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -1852,7 +1168,7 @@
         <v>6</v>
       </c>
       <c r="B14">
-        <v>0.18005333861999229</v>
+        <v>0.18005333861999201</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -1860,7 +1176,7 @@
         <v>6.5</v>
       </c>
       <c r="B15">
-        <v>0.17299795701262499</v>
+        <v>0.1729979570126228</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -1868,7 +1184,7 @@
         <v>7</v>
       </c>
       <c r="B16">
-        <v>0.1659425754052555</v>
+        <v>0.16594257540525831</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -1876,7 +1192,7 @@
         <v>7.5</v>
       </c>
       <c r="B17">
-        <v>0.1588871937978916</v>
+        <v>0.15888719379789201</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -1892,7 +1208,7 @@
         <v>8.5</v>
       </c>
       <c r="B19">
-        <v>0.14477643058315881</v>
+        <v>0.144776430583159</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -1900,7 +1216,7 @@
         <v>9</v>
       </c>
       <c r="B20">
-        <v>0.13772104897579279</v>
+        <v>0.13772104897579171</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -1913,20 +1229,20 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B23">
         <f>SLOPE(B2:B20,A2:A20)</f>
-        <v>-1.4110763214732751E-2</v>
+        <v>-1.4110763214732857E-2</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B24">
         <f>INTERCEPT(B2:B20,A2:A20)</f>
-        <v>0.26471791790838745</v>
+        <v>0.26471791790838828</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -1935,19 +1251,19 @@
       </c>
       <c r="B25" s="8">
         <f>(B22-B24)/B23</f>
-        <v>8.1298166628303203</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+        <v>8.1298166628303186</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
       <c r="B27" s="3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B28" s="5">
         <v>44.6</v>
@@ -1955,16 +1271,16 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B29" s="5">
         <f>B25</f>
-        <v>8.1298166628303203</v>
+        <v>8.1298166628303186</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B30" s="5">
         <v>9.3800000000000008</v>
@@ -1972,15 +1288,15 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B31" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B32" s="7">
         <v>0.15</v>
